--- a/com.supermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\eclipse-workspace\com.supermarket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\com.supermarket\com.supermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6757F3F-0940-4CCE-BAAD-A862E06DA9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB48979-4F73-47F6-B35E-E1EE473D3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F4DCCE3-4642-4271-B794-E5CE2BFB1821}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2F4DCCE3-4642-4271-B794-E5CE2BFB1821}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLoginCredentials" sheetId="2" r:id="rId2"/>
+    <sheet name="createUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>nasrin</t>
   </si>
@@ -55,19 +56,91 @@
   </si>
   <si>
     <t>Spniju</t>
+  </si>
+  <si>
+    <t>sdsf</t>
+  </si>
+  <si>
+    <t>efrw</t>
+  </si>
+  <si>
+    <t>feg</t>
+  </si>
+  <si>
+    <t>rgegt</t>
+  </si>
+  <si>
+    <t>egtegtt</t>
+  </si>
+  <si>
+    <t>erg</t>
+  </si>
+  <si>
+    <t>qewr</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Passwrod</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>deliverBoy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDF2611-35D9-440E-AB4F-20217EB28EF5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -443,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD57058-82A1-4B7C-AC37-E524688C473D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,8 +534,110 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EE4342-264B-471B-8EC7-498548ECB251}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
